--- a/uploads/templates/education.xlsx
+++ b/uploads/templates/education.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rejwan\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Files\Web Dev\Fullstack\MERN Portfolio\server\uploads\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>title</t>
   </si>
@@ -45,9 +45,6 @@
     <t>Dhaka, Bangladesh</t>
   </si>
   <si>
-    <t>College</t>
-  </si>
-  <si>
     <t>University</t>
   </si>
   <si>
@@ -55,9 +52,6 @@
   </si>
   <si>
     <t>Johor, Malaysia</t>
-  </si>
-  <si>
-    <t>sss</t>
   </si>
 </sst>
 </file>
@@ -327,10 +321,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -370,40 +364,23 @@
         <v>39661</v>
       </c>
       <c r="E2" s="3">
-        <v>42583</v>
+        <v>43313</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="3">
-        <v>42583</v>
-      </c>
-      <c r="E3" s="3">
-        <v>43313</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="4">
+      <c r="D3" s="4">
         <v>43466</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E3" s="4">
         <v>44927</v>
       </c>
     </row>
